--- a/docs/Parameter_units.xlsx
+++ b/docs/Parameter_units.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>Parameter</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Scaled (??)</t>
   </si>
   <si>
-    <t>line 388 (frwdmdl.f90)  DWAVE = 0.5D0*(WAVE3(IBAND)+WAVE4(IBAND))*((WAVFAC(IBAND) + WSCALE) - 1.D0) WSCALE is from PARM array</t>
+    <t>line 388 (frwdmdl.f90)  DWAVE = 0.5D0*(WAVE3(IBAND)+WAVE4(IBAND))*((WAVFAC(IBAND) + WSCALE) - 1.D0) WSCALE is from PARM array. However the calculation is done as a shift not as a scaling, this is the reason why it only works for small microwindows</t>
   </si>
   <si>
     <t>Independent wavelength shift for each bandpass OR independent wavelength shift for each fitting</t>
@@ -125,7 +125,7 @@
     <t>IWNumShft</t>
   </si>
   <si>
-    <t>line 388 (frwdmdl.f90) Seems like a scale factor: DWAVE = 0.5D0*(WAVE3(IBAND)+WAVE4(IBAND))*((WAVFAC(IBAND) + WSCALE) - 1.D0)</t>
+    <t>line 388 (frwdmdl.f90) Seems like a scale factor: DWAVE = 0.5D0*(WAVE3(IBAND)+WAVE4(IBAND))*((WAVFAC(IBAND) + WSCALE) – 1.D0), the calculation is done as a shift, not a scaling. Works only for small microwindows.</t>
   </si>
   <si>
     <t>Differential wavenumber shift for retrieval gases</t>
@@ -140,112 +140,115 @@
     <t>Absolute (??)</t>
   </si>
   <si>
+    <t>units of point_calc_space</t>
+  </si>
+  <si>
+    <t>line 150 (frwdmdl.f90) ISHIFT(:NDIFF) = NINT(PARM(NCOUNT+1:NDIFF+NCOUNT)/.6D-06); This is the index of the respective crosssection. If this is retrieved it is important to have a narrow calc_point_space.</t>
+  </si>
+  <si>
+    <t>Solar zenith angle</t>
+  </si>
+  <si>
+    <t>sza</t>
+  </si>
+  <si>
+    <t>SZA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>line 201 (frwdmdl.f90) astang(k) = astang0(k)*(1.0d0+parm(ncount+k))</t>
+  </si>
+  <si>
+    <t>Line intensity</t>
+  </si>
+  <si>
+    <t>lineInt</t>
+  </si>
+  <si>
+    <t>LineInt</t>
+  </si>
+  <si>
+    <t>line 182 (frwdmdl.f90) ST296(i) = ST296(i)* (1.0d0 + parm(ncount+k))</t>
+  </si>
+  <si>
+    <t>Line Temperature Broadening</t>
+  </si>
+  <si>
+    <t>lineTAir</t>
+  </si>
+  <si>
+    <t>LineTAir</t>
+  </si>
+  <si>
+    <t>line 183 (frwdmdl.f90) AAA(i) = AAA(i)* (1.0d0 + parm(ncount+niline+k))</t>
+  </si>
+  <si>
+    <t>Line Pressure Broadening</t>
+  </si>
+  <si>
+    <t>linePAir</t>
+  </si>
+  <si>
+    <t>LinePAir</t>
+  </si>
+  <si>
+    <t>line 184 (frwdmdl.f90) TDLIN(i) = TDLIN(i)* (1.0d0 + parm(ncount+niline+npline+k))</t>
+  </si>
+  <si>
+    <t>Background slope</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>BckGrdSlp</t>
+  </si>
+  <si>
+    <t>1/cm-1</t>
+  </si>
+  <si>
+    <t>line 443 (frwdmdl.f90) BKGND = B(1)*(1.0D0 + B(2)*YS+B(3)*YS*YS) B(2) = slope</t>
+  </si>
+  <si>
+    <t>Background curvature</t>
+  </si>
+  <si>
+    <t>curvature</t>
+  </si>
+  <si>
+    <t>BckGrdCur</t>
+  </si>
+  <si>
+    <t>1/cm-2</t>
+  </si>
+  <si>
+    <t>line 443 (frwdmdl.f90) BKGND = B(1)*(1.0D0 + B(2)*YS+B(3)*YS*YS) B(3) = curvature</t>
+  </si>
+  <si>
+    <t>Empirical apodization function</t>
+  </si>
+  <si>
+    <t>apod_fcn</t>
+  </si>
+  <si>
+    <t>EmpApdFcn</t>
+  </si>
+  <si>
+    <t>line 134 (frwdmdl.f90):EAPF(:NEAPRT) = EAPF0(:NEAPRT)*PARM(NCOUNT+1:NEAPRT+NCOUNT) where parm is  read from rt.apod_fcn.apriori in sfit4.ctl file </t>
+  </si>
+  <si>
+    <t>Empirical phase function</t>
+  </si>
+  <si>
+    <t>phase_fcn</t>
+  </si>
+  <si>
+    <t>EmpPhsFnc</t>
+  </si>
+  <si>
     <t>??</t>
-  </si>
-  <si>
-    <t>line 150 (frwdmdl.f90) ISHIFT(:NDIFF) = NINT(PARM(NCOUNT+1:NDIFF+NCOUNT)/.6D-06) ?!?! This seems like it should be an absolute number but why divide by 6E-7?!?!</t>
-  </si>
-  <si>
-    <t>Solar zenith angle</t>
-  </si>
-  <si>
-    <t>sza</t>
-  </si>
-  <si>
-    <t>SZA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>line 201 (frwdmdl.f90) astang(k) = astang0(k)*(1.0d0+parm(ncount+k))</t>
-  </si>
-  <si>
-    <t>Line intensity</t>
-  </si>
-  <si>
-    <t>lineInt</t>
-  </si>
-  <si>
-    <t>LineInt</t>
-  </si>
-  <si>
-    <t>line 182 (frwdmdl.f90) ST296(i) = ST296(i)* (1.0d0 + parm(ncount+k))</t>
-  </si>
-  <si>
-    <t>Line Temperature Broadening</t>
-  </si>
-  <si>
-    <t>lineTAir</t>
-  </si>
-  <si>
-    <t>LineTAir</t>
-  </si>
-  <si>
-    <t>line 183 (frwdmdl.f90) AAA(i) = AAA(i)* (1.0d0 + parm(ncount+niline+k))</t>
-  </si>
-  <si>
-    <t>Line Pressure Broadening</t>
-  </si>
-  <si>
-    <t>linePAir</t>
-  </si>
-  <si>
-    <t>LinePAir</t>
-  </si>
-  <si>
-    <t>line 184 (frwdmdl.f90) TDLIN(i) = TDLIN(i)* (1.0d0 + parm(ncount+niline+npline+k))</t>
-  </si>
-  <si>
-    <t>Background slope</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>BckGrdSlp</t>
-  </si>
-  <si>
-    <t>1/cm-1</t>
-  </si>
-  <si>
-    <t>line 443 (frwdmdl.f90) BKGND = B(1)*(1.0D0 + B(2)*YS+B(3)*YS*YS) B(2) = slope</t>
-  </si>
-  <si>
-    <t>Background curvature</t>
-  </si>
-  <si>
-    <t>curvature</t>
-  </si>
-  <si>
-    <t>BckGrdCur</t>
-  </si>
-  <si>
-    <t>1/cm-2</t>
-  </si>
-  <si>
-    <t>line 443 (frwdmdl.f90) BKGND = B(1)*(1.0D0 + B(2)*YS+B(3)*YS*YS) B(3) = curvature</t>
-  </si>
-  <si>
-    <t>Empirical apodization function</t>
-  </si>
-  <si>
-    <t>apod_fcn</t>
-  </si>
-  <si>
-    <t>EmpApdFcn</t>
-  </si>
-  <si>
-    <t>line 134 (frwdmdl.f90):EAPF(:NEAPRT) = EAPF0(:NEAPRT)*PARM(NCOUNT+1:NEAPRT+NCOUNT) where parm is  read from rt.apod_fcn.apriori in sfit4.ctl file </t>
-  </si>
-  <si>
-    <t>Empirical phase function</t>
-  </si>
-  <si>
-    <t>phase_fcn</t>
-  </si>
-  <si>
-    <t>EmpPhsFnc</t>
   </si>
   <si>
     <t>line 142 (frwdmdl.f90) EPHSF(:NEPHSRT) = EPHSF0(:NEPHSRT)*PARM(NCOUNT+1:NEPHSRT+NCOUNT)</t>
@@ -449,7 +452,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -496,6 +499,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="2" fontId="0" numFmtId="164" xfId="0">
@@ -594,7 +601,7 @@
   <dimension ref="B5:H26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
+      <selection activeCell="F12" activeCellId="0" pane="topLeft" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44.75" outlineLevel="0" r="10">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -745,7 +752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30.3" outlineLevel="0" r="11">
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
@@ -768,7 +775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44.75" outlineLevel="0" r="12">
       <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
@@ -781,7 +788,7 @@
       <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -963,7 +970,7 @@
         <v>76</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>11</v>
@@ -972,18 +979,18 @@
         <v>12</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>10</v>
@@ -995,18 +1002,18 @@
         <v>46</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="B22" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>10</v>
@@ -1015,38 +1022,38 @@
         <v>11</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30" outlineLevel="0" r="23">
-      <c r="B23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="30" outlineLevel="0" r="24">
       <c r="B24" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1060,19 +1067,19 @@
         <v>12</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="26">
-      <c r="B26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
